--- a/csm/excel/templated car.xlsx
+++ b/csm/excel/templated car.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>YEAR</t>
   </si>
@@ -33,16 +33,43 @@
     <t>2015</t>
   </si>
   <si>
-    <t>H01-01</t>
-  </si>
-  <si>
     <t>CC1200</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>H</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>CAR CODE</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HON001</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>TOY001</t>
+  </si>
+  <si>
+    <t>TOY002</t>
+  </si>
+  <si>
+    <t>HD-01</t>
+  </si>
+  <si>
+    <t>TO-01</t>
   </si>
 </sst>
 </file>
@@ -409,57 +436,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="2"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="14" style="2"/>
+    <col min="3" max="3" width="9.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
